--- a/May'21/30.05.2021/Daily Sales Info.xlsx
+++ b/May'21/30.05.2021/Daily Sales Info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr showObjects="none" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="794" activeTab="29"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="794" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -15131,7 +15131,7 @@
       </c>
       <c r="F4" s="2">
         <f>'9'!F29</f>
-        <v>12980</v>
+        <v>12830</v>
       </c>
       <c r="G4" s="2">
         <f>'9'!G29</f>
@@ -16662,7 +16662,7 @@
       </c>
       <c r="F29" s="48">
         <f t="shared" si="9"/>
-        <v>12250</v>
+        <v>12100</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="9"/>
@@ -17069,7 +17069,7 @@
       </c>
       <c r="F4" s="2">
         <f>'10'!F29</f>
-        <v>12250</v>
+        <v>12100</v>
       </c>
       <c r="G4" s="2">
         <f>'10'!G29</f>
@@ -18588,7 +18588,7 @@
       </c>
       <c r="F29" s="48">
         <f t="shared" si="9"/>
-        <v>10460</v>
+        <v>10310</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="9"/>
@@ -18982,7 +18982,7 @@
       </c>
       <c r="F4" s="2">
         <f>'11'!F29</f>
-        <v>10460</v>
+        <v>10310</v>
       </c>
       <c r="G4" s="2">
         <f>'11'!G29</f>
@@ -20282,7 +20282,7 @@
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10250</v>
+        <v>10100</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -20656,7 +20656,7 @@
       </c>
       <c r="F4" s="2">
         <f>'12'!F29</f>
-        <v>10250</v>
+        <v>10100</v>
       </c>
       <c r="G4" s="2">
         <f>'12'!G29</f>
@@ -21894,7 +21894,7 @@
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10250</v>
+        <v>10100</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -22266,7 +22266,7 @@
       </c>
       <c r="F4" s="2">
         <f>'13'!F29</f>
-        <v>10250</v>
+        <v>10100</v>
       </c>
       <c r="G4" s="2">
         <f>'13'!G29</f>
@@ -23444,7 +23444,7 @@
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10250</v>
+        <v>10100</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -23816,7 +23816,7 @@
       </c>
       <c r="F4" s="2">
         <f>'14'!F29</f>
-        <v>10250</v>
+        <v>10100</v>
       </c>
       <c r="G4" s="2">
         <f>'14'!G29</f>
@@ -24994,7 +24994,7 @@
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10250</v>
+        <v>10100</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -25366,7 +25366,7 @@
       </c>
       <c r="F4" s="2">
         <f>'15'!F29</f>
-        <v>10250</v>
+        <v>10100</v>
       </c>
       <c r="G4" s="2">
         <f>'15'!G29</f>
@@ -26544,7 +26544,7 @@
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10250</v>
+        <v>10100</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -26916,7 +26916,7 @@
       </c>
       <c r="F4" s="2">
         <f>'16'!F29</f>
-        <v>10250</v>
+        <v>10100</v>
       </c>
       <c r="G4" s="2">
         <f>'16'!G29</f>
@@ -28160,7 +28160,7 @@
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10250</v>
+        <v>10100</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -28539,7 +28539,7 @@
       </c>
       <c r="F4" s="2">
         <f>'17'!F29</f>
-        <v>10250</v>
+        <v>10100</v>
       </c>
       <c r="G4" s="2">
         <f>'17'!G29</f>
@@ -29839,7 +29839,7 @@
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10250</v>
+        <v>10100</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -30275,7 +30275,7 @@
       </c>
       <c r="F4" s="2">
         <f>'18'!F29</f>
-        <v>10250</v>
+        <v>10100</v>
       </c>
       <c r="G4" s="2">
         <f>'18'!G29</f>
@@ -31593,7 +31593,7 @@
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10020</v>
+        <v>9870</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -31868,7 +31868,7 @@
   <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -33640,7 +33640,7 @@
       </c>
       <c r="F4" s="2">
         <f>'19'!F29</f>
-        <v>10020</v>
+        <v>9870</v>
       </c>
       <c r="G4" s="2">
         <f>'19'!G29</f>
@@ -34978,7 +34978,7 @@
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>9490</v>
+        <v>9340</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -35350,7 +35350,7 @@
       </c>
       <c r="F4" s="2">
         <f>'20'!F29</f>
-        <v>9490</v>
+        <v>9340</v>
       </c>
       <c r="G4" s="2">
         <f>'20'!G29</f>
@@ -36528,7 +36528,7 @@
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>9490</v>
+        <v>9340</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -36902,7 +36902,7 @@
       </c>
       <c r="F4" s="2">
         <f>'21'!F29</f>
-        <v>9490</v>
+        <v>9340</v>
       </c>
       <c r="G4" s="2">
         <f>'21'!G29</f>
@@ -38214,7 +38214,7 @@
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>9290</v>
+        <v>9140</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -38587,7 +38587,7 @@
       </c>
       <c r="F4" s="2">
         <f>'22'!F29</f>
-        <v>9290</v>
+        <v>9140</v>
       </c>
       <c r="G4" s="2">
         <f>'22'!G29</f>
@@ -39925,7 +39925,7 @@
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>8950</v>
+        <v>8800</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -40313,7 +40313,7 @@
       </c>
       <c r="F4" s="2">
         <f>'23'!F29</f>
-        <v>8950</v>
+        <v>8800</v>
       </c>
       <c r="G4" s="2">
         <f>'23'!G29</f>
@@ -41651,7 +41651,7 @@
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>8690</v>
+        <v>8540</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -42024,7 +42024,7 @@
       </c>
       <c r="F4" s="2">
         <f>'24'!F29</f>
-        <v>8690</v>
+        <v>8540</v>
       </c>
       <c r="G4" s="2">
         <f>'24'!G29</f>
@@ -43320,7 +43320,7 @@
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>8690</v>
+        <v>8540</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -43699,7 +43699,7 @@
       </c>
       <c r="F4" s="2">
         <f>'25'!F29</f>
-        <v>8690</v>
+        <v>8540</v>
       </c>
       <c r="G4" s="2">
         <f>'25'!G29</f>
@@ -45046,7 +45046,7 @@
       </c>
       <c r="F29" s="48">
         <f t="shared" si="9"/>
-        <v>7750</v>
+        <v>7600</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="9"/>
@@ -45420,7 +45420,7 @@
       </c>
       <c r="F4" s="2">
         <f>'26'!F29</f>
-        <v>7750</v>
+        <v>7600</v>
       </c>
       <c r="G4" s="2">
         <f>'26'!G29</f>
@@ -46744,7 +46744,7 @@
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>7550</v>
+        <v>7400</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -47116,7 +47116,7 @@
       </c>
       <c r="F4" s="2">
         <f>'27'!F29</f>
-        <v>7550</v>
+        <v>7400</v>
       </c>
       <c r="G4" s="2">
         <f>'27'!G29</f>
@@ -48294,7 +48294,7 @@
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>7550</v>
+        <v>7400</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -48672,7 +48672,7 @@
       </c>
       <c r="F4" s="2">
         <f>'28'!F29</f>
-        <v>7550</v>
+        <v>7400</v>
       </c>
       <c r="G4" s="2">
         <f>'28'!G29</f>
@@ -50022,7 +50022,7 @@
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>7070</v>
+        <v>6920</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -52002,7 +52002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q28" sqref="Q28"/>
     </sheetView>
@@ -52105,7 +52105,7 @@
       </c>
       <c r="F4" s="2">
         <f>'29'!F29</f>
-        <v>7070</v>
+        <v>6920</v>
       </c>
       <c r="G4" s="2">
         <f>'29'!G29</f>
@@ -53626,7 +53626,7 @@
       </c>
       <c r="F29" s="48">
         <f t="shared" si="9"/>
-        <v>6010</v>
+        <v>5860</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="9"/>
@@ -54020,7 +54020,7 @@
       </c>
       <c r="F4" s="2">
         <f>'30'!F29</f>
-        <v>6010</v>
+        <v>5860</v>
       </c>
       <c r="G4" s="2">
         <f>'30'!G29</f>
@@ -55200,7 +55200,7 @@
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>6010</v>
+        <v>5860</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -55741,7 +55741,7 @@
       </c>
       <c r="F7" s="21">
         <f>'2'!F7+'1'!F7+'3'!F7+'4'!F7+'5'!F7+'6'!F7+'7'!F7+'8'!F7+'9'!F7+'10'!F7+'11'!F7+'12'!F7+'13'!F7+'14'!F7+'15'!F7+'16'!F7+'17'!F7+'18'!F7+'19'!F7+'20'!F7+'21'!F7+'22'!F7+'23'!F7+'24'!F7+'25'!F7+'26'!F7+'27'!F7+'28'!F7+'29'!F7+'30'!F7+'31'!F7</f>
-        <v>1130</v>
+        <v>1230</v>
       </c>
       <c r="G7" s="21">
         <f>'2'!G7+'1'!G7+'3'!G7+'4'!G7+'5'!G7+'6'!G7+'7'!G7+'8'!G7+'9'!G7+'10'!G7+'11'!G7+'12'!G7+'13'!G7+'14'!G7+'15'!G7+'16'!G7+'17'!G7+'18'!G7+'19'!G7+'20'!G7+'21'!G7+'22'!G7+'23'!G7+'24'!G7+'25'!G7+'26'!G7+'27'!G7+'28'!G7+'29'!G7+'30'!G7+'31'!G7</f>
@@ -55769,15 +55769,15 @@
       </c>
       <c r="M7" s="20">
         <f t="shared" ref="M7:M27" si="0">D7+E7*20+F7*10+G7*9+H7*9</f>
-        <v>370932</v>
+        <v>371932</v>
       </c>
       <c r="N7" s="24">
         <f t="shared" ref="N7:N27" si="1">D7+E7*20+F7*10+G7*9+H7*9+I7*191+J7*191+K7*182+L7*100</f>
-        <v>404952</v>
+        <v>405952</v>
       </c>
       <c r="O7" s="25">
         <f>M7*2.75%</f>
-        <v>10200.629999999999</v>
+        <v>10228.129999999999</v>
       </c>
       <c r="P7" s="26"/>
       <c r="Q7" s="26">
@@ -55786,15 +55786,15 @@
       </c>
       <c r="R7" s="24">
         <f>M7-(M7*2.75%)+I7*191+J7*191+K7*182+L7*100-Q7</f>
-        <v>392749.37</v>
+        <v>393721.87</v>
       </c>
       <c r="S7" s="25">
         <f>M7*0.95%</f>
-        <v>3523.8539999999998</v>
+        <v>3533.3539999999998</v>
       </c>
       <c r="T7" s="27">
         <f>S7-Q7</f>
-        <v>1521.8539999999998</v>
+        <v>1531.3539999999998</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -57261,7 +57261,7 @@
       </c>
       <c r="F27" s="21">
         <f>'2'!F27+'1'!F27+'3'!F27+'4'!F27+'5'!F27+'6'!F27+'7'!F27+'8'!F27+'9'!F27+'10'!F27+'11'!F27+'12'!F27+'13'!F27+'14'!F27+'15'!F27+'16'!F27+'17'!F27+'18'!F27+'19'!F27+'20'!F27+'21'!F27+'22'!F27+'23'!F27+'24'!F27+'25'!F27+'26'!F27+'27'!F27+'28'!F27+'29'!F27+'30'!F27+'31'!F27</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G27" s="21">
         <f>'2'!G27+'1'!G27+'3'!G27+'4'!G27+'5'!G27+'6'!G27+'7'!G27+'8'!G27+'9'!G27+'10'!G27+'11'!G27+'12'!G27+'13'!G27+'14'!G27+'15'!G27+'16'!G27+'17'!G27+'18'!G27+'19'!G27+'20'!G27+'21'!G27+'22'!G27+'23'!G27+'24'!G27+'25'!G27+'26'!G27+'27'!G27+'28'!G27+'29'!G27+'30'!G27+'31'!G27</f>
@@ -57289,15 +57289,15 @@
       </c>
       <c r="M27" s="31">
         <f t="shared" si="0"/>
-        <v>258990</v>
+        <v>259490</v>
       </c>
       <c r="N27" s="40">
         <f t="shared" si="1"/>
-        <v>292145</v>
+        <v>292645</v>
       </c>
       <c r="O27" s="25">
         <f t="shared" si="2"/>
-        <v>7122.2250000000004</v>
+        <v>7135.9750000000004</v>
       </c>
       <c r="P27" s="41"/>
       <c r="Q27" s="26">
@@ -57306,15 +57306,15 @@
       </c>
       <c r="R27" s="24">
         <f t="shared" si="3"/>
-        <v>282184.77500000002</v>
+        <v>282671.02500000002</v>
       </c>
       <c r="S27" s="42">
         <f t="shared" si="4"/>
-        <v>2460.4049999999997</v>
+        <v>2465.1549999999997</v>
       </c>
       <c r="T27" s="43">
         <f t="shared" si="5"/>
-        <v>-377.59500000000025</v>
+        <v>-372.84500000000025</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -57333,7 +57333,7 @@
       </c>
       <c r="F28" s="45">
         <f t="shared" ref="F28:T28" si="7">SUM(F7:F27)</f>
-        <v>11970</v>
+        <v>12120</v>
       </c>
       <c r="G28" s="45">
         <f t="shared" si="7"/>
@@ -57361,15 +57361,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="7"/>
-        <v>6642591</v>
+        <v>6644091</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>7077804</v>
+        <v>7079304</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
-        <v>182671.25250000003</v>
+        <v>182712.50250000003</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="7"/>
@@ -57381,15 +57381,15 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>6845542.7474999996</v>
+        <v>6847001.4974999996</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
-        <v>63104.614499999996</v>
+        <v>63118.864499999996</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>13514.614499999996</v>
+        <v>13528.864499999996</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -57408,7 +57408,7 @@
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>6010</v>
+        <v>5860</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -57673,9 +57673,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57919,7 +57919,9 @@
         <v>6944</v>
       </c>
       <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="F7" s="22">
+        <v>100</v>
+      </c>
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
       <c r="I7" s="23"/>
@@ -57928,15 +57930,15 @@
       <c r="L7" s="23"/>
       <c r="M7" s="20">
         <f>D7+E7*20+F7*10+G7*9+H7*9</f>
-        <v>6944</v>
+        <v>7944</v>
       </c>
       <c r="N7" s="24">
         <f>D7+E7*20+F7*10+G7*9+H7*9+I7*191+J7*191+K7*182+L7*100</f>
-        <v>6944</v>
+        <v>7944</v>
       </c>
       <c r="O7" s="25">
         <f>M7*2.75%</f>
-        <v>190.96</v>
+        <v>218.46</v>
       </c>
       <c r="P7" s="26"/>
       <c r="Q7" s="26">
@@ -57944,15 +57946,15 @@
       </c>
       <c r="R7" s="24">
         <f>M7-(M7*2.75%)+I7*191+J7*191+K7*182+L7*100-Q7</f>
-        <v>6690.04</v>
+        <v>7662.54</v>
       </c>
       <c r="S7" s="25">
         <f>M7*0.95%</f>
-        <v>65.968000000000004</v>
+        <v>75.468000000000004</v>
       </c>
       <c r="T7" s="27">
         <f>S7-Q7</f>
-        <v>2.9680000000000035</v>
+        <v>12.468000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -59049,7 +59051,7 @@
       </c>
       <c r="F28" s="45">
         <f t="shared" ref="F28:T28" si="7">SUM(F7:F27)</f>
-        <v>960</v>
+        <v>1060</v>
       </c>
       <c r="G28" s="45">
         <f t="shared" si="7"/>
@@ -59077,15 +59079,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="7"/>
-        <v>222105</v>
+        <v>223105</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>237879</v>
+        <v>238879</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
-        <v>6107.8874999999989</v>
+        <v>6135.3874999999989</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="7"/>
@@ -59097,15 +59099,15 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>229824.11249999996</v>
+        <v>230796.61249999996</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
-        <v>2109.9974999999999</v>
+        <v>2119.4974999999999</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>162.9975</v>
+        <v>172.4975</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -59124,7 +59126,7 @@
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>16450</v>
+        <v>16350</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -59497,7 +59499,7 @@
       </c>
       <c r="F4" s="2">
         <f>'4'!F29</f>
-        <v>16450</v>
+        <v>16350</v>
       </c>
       <c r="G4" s="2">
         <f>'4'!G29</f>
@@ -60862,7 +60864,7 @@
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>15590</v>
+        <v>15490</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -61234,7 +61236,7 @@
       </c>
       <c r="F4" s="2">
         <f>'5'!F29</f>
-        <v>15590</v>
+        <v>15490</v>
       </c>
       <c r="G4" s="2">
         <f>'5'!G29</f>
@@ -62564,7 +62566,7 @@
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>14910</v>
+        <v>14810</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -62835,8 +62837,8 @@
   <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -62939,7 +62941,7 @@
       </c>
       <c r="F4" s="2">
         <f>'6'!F29</f>
-        <v>14910</v>
+        <v>14810</v>
       </c>
       <c r="G4" s="2">
         <f>'6'!G29</f>
@@ -64278,7 +64280,9 @@
         <v>6241</v>
       </c>
       <c r="E27" s="38"/>
-      <c r="F27" s="39"/>
+      <c r="F27" s="39">
+        <v>50</v>
+      </c>
       <c r="G27" s="39"/>
       <c r="H27" s="39"/>
       <c r="I27" s="31"/>
@@ -64287,15 +64291,15 @@
       <c r="L27" s="31"/>
       <c r="M27" s="20">
         <f t="shared" si="1"/>
-        <v>6241</v>
+        <v>6741</v>
       </c>
       <c r="N27" s="24">
         <f t="shared" si="2"/>
-        <v>6241</v>
+        <v>6741</v>
       </c>
       <c r="O27" s="25">
         <f t="shared" si="3"/>
-        <v>171.6275</v>
+        <v>185.3775</v>
       </c>
       <c r="P27" s="26"/>
       <c r="Q27" s="26">
@@ -64303,20 +64307,20 @@
       </c>
       <c r="R27" s="24">
         <f t="shared" si="4"/>
-        <v>5969.3725000000004</v>
+        <v>6455.6225000000004</v>
       </c>
       <c r="S27" s="25">
         <f t="shared" si="5"/>
-        <v>59.289499999999997</v>
+        <v>64.039500000000004</v>
       </c>
       <c r="T27" s="27">
         <f t="shared" si="6"/>
-        <v>-40.710500000000003</v>
+        <v>-35.960499999999996</v>
       </c>
       <c r="U27" s="59"/>
       <c r="V27" s="63">
         <f t="shared" si="7"/>
-        <v>5969.3725000000004</v>
+        <v>6455.6225000000004</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -64335,7 +64339,7 @@
       </c>
       <c r="F28" s="45">
         <f t="shared" ref="F28:V28" si="9">SUM(F7:F27)</f>
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="G28" s="45">
         <f t="shared" si="9"/>
@@ -64363,15 +64367,15 @@
       </c>
       <c r="M28" s="61">
         <f t="shared" si="9"/>
-        <v>281019</v>
+        <v>281519</v>
       </c>
       <c r="N28" s="61">
         <f t="shared" si="9"/>
-        <v>298892</v>
+        <v>299392</v>
       </c>
       <c r="O28" s="62">
         <f t="shared" si="9"/>
-        <v>7728.0224999999991</v>
+        <v>7741.7724999999991</v>
       </c>
       <c r="P28" s="61">
         <f t="shared" si="9"/>
@@ -64383,15 +64387,15 @@
       </c>
       <c r="R28" s="61">
         <f t="shared" si="9"/>
-        <v>289007.97750000004</v>
+        <v>289494.22750000004</v>
       </c>
       <c r="S28" s="61">
         <f t="shared" si="9"/>
-        <v>2669.6804999999999</v>
+        <v>2674.4304999999999</v>
       </c>
       <c r="T28" s="61">
         <f t="shared" si="9"/>
-        <v>513.68050000000005</v>
+        <v>518.43050000000005</v>
       </c>
       <c r="U28" s="61">
         <f t="shared" si="9"/>
@@ -64399,7 +64403,7 @@
       </c>
       <c r="V28" s="61">
         <f t="shared" si="9"/>
-        <v>288021.97750000004</v>
+        <v>288508.22750000004</v>
       </c>
     </row>
     <row r="29" spans="1:22" thickBot="1" x14ac:dyDescent="0.3">
@@ -64418,7 +64422,7 @@
       </c>
       <c r="F29" s="48">
         <f t="shared" si="10"/>
-        <v>14160</v>
+        <v>14010</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="10"/>
@@ -64813,7 +64817,7 @@
       </c>
       <c r="F4" s="2">
         <f>'7'!F29</f>
-        <v>14160</v>
+        <v>14010</v>
       </c>
       <c r="G4" s="2">
         <f>'7'!G29</f>
@@ -65991,7 +65995,7 @@
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>14160</v>
+        <v>14010</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -66364,7 +66368,7 @@
       </c>
       <c r="F4" s="2">
         <f>'8'!F29</f>
-        <v>14160</v>
+        <v>14010</v>
       </c>
       <c r="G4" s="2">
         <f>'8'!G29</f>
@@ -67871,7 +67875,7 @@
       </c>
       <c r="F29" s="48">
         <f t="shared" si="9"/>
-        <v>12980</v>
+        <v>12830</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="9"/>
